--- a/doc/99. 참고자료/04. 일정/스마트팩토리_인공지능 커리큘럼_안동(2021년)_최종_학생공지.xlsx
+++ b/doc/99. 참고자료/04. 일정/스마트팩토리_인공지능 커리큘럼_안동(2021년)_최종_학생공지.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\공유폴더\일정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ANU-SmartFactory2021\doc\99. 참고자료\04. 일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7000" windowWidth="23040" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="7455" windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="스마트팩토리_강의일정표(안동)" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="248">
   <si>
     <t>HTML/CSS/JAVASCRIPT</t>
   </si>
@@ -1713,10 +1713,6 @@
   </si>
   <si>
     <t>나동빈</t>
-  </si>
-  <si>
-    <t>실전 프로젝트 멘토링8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TOPCIT</t>
@@ -2133,7 +2129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2557,6 +2553,42 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2566,16 +2598,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2590,29 +2613,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2627,39 +2659,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2953,46 +2952,46 @@
   <dimension ref="A2:AD135"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="F98" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
-      <selection pane="bottomRight" activeCell="F68" sqref="F68"/>
+      <selection pane="bottomRight" activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.08203125" style="55" customWidth="1"/>
-    <col min="2" max="2" width="6.08203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="11" style="55" customWidth="1"/>
-    <col min="5" max="5" width="20.4140625" style="55" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="55" customWidth="1"/>
     <col min="6" max="6" width="52" style="55" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.4140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" style="55" customWidth="1"/>
     <col min="13" max="13" width="0" style="55" hidden="1" customWidth="1"/>
-    <col min="14" max="18" width="9.08203125" style="55" hidden="1" customWidth="1"/>
+    <col min="14" max="18" width="9.125" style="55" hidden="1" customWidth="1"/>
     <col min="19" max="24" width="0" style="55" hidden="1" customWidth="1"/>
     <col min="25" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="30">
-      <c r="B2" s="157" t="s">
+    <row r="2" spans="2:30" ht="31.5">
+      <c r="B2" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -3142,7 +3141,7 @@
       <c r="K6" s="101">
         <v>8</v>
       </c>
-      <c r="L6" s="144">
+      <c r="L6" s="142">
         <f>SUM(K6:K11)</f>
         <v>48</v>
       </c>
@@ -3195,7 +3194,7 @@
       <c r="K7" s="77">
         <v>8</v>
       </c>
-      <c r="L7" s="145"/>
+      <c r="L7" s="143"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
       <c r="O7" s="101" t="s">
@@ -3240,7 +3239,7 @@
       <c r="K8" s="77">
         <v>8</v>
       </c>
-      <c r="L8" s="145"/>
+      <c r="L8" s="143"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
       <c r="O8" s="101" t="e">
@@ -3290,7 +3289,7 @@
       <c r="K9" s="77">
         <v>8</v>
       </c>
-      <c r="L9" s="145"/>
+      <c r="L9" s="143"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
@@ -3328,7 +3327,7 @@
       <c r="K10" s="77">
         <v>8</v>
       </c>
-      <c r="L10" s="145"/>
+      <c r="L10" s="143"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -3358,7 +3357,7 @@
       <c r="K11" s="77">
         <v>8</v>
       </c>
-      <c r="L11" s="146"/>
+      <c r="L11" s="145"/>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="8" t="s">
@@ -3393,7 +3392,7 @@
       <c r="K12" s="77">
         <v>8</v>
       </c>
-      <c r="L12" s="144">
+      <c r="L12" s="142">
         <f>SUM(K12:K23)</f>
         <v>96</v>
       </c>
@@ -3433,7 +3432,7 @@
       <c r="K13" s="77">
         <v>8</v>
       </c>
-      <c r="L13" s="145"/>
+      <c r="L13" s="143"/>
     </row>
     <row r="14" spans="2:30" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B14" s="101">
@@ -3458,7 +3457,7 @@
       <c r="K14" s="77">
         <v>8</v>
       </c>
-      <c r="L14" s="145"/>
+      <c r="L14" s="143"/>
     </row>
     <row r="15" spans="2:30" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B15" s="101">
@@ -3483,7 +3482,7 @@
       <c r="K15" s="77">
         <v>8</v>
       </c>
-      <c r="L15" s="145"/>
+      <c r="L15" s="143"/>
       <c r="AC15" s="57">
         <v>944</v>
       </c>
@@ -3511,7 +3510,7 @@
       <c r="K16" s="77">
         <v>8</v>
       </c>
-      <c r="L16" s="145"/>
+      <c r="L16" s="143"/>
     </row>
     <row r="17" spans="1:20" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B17" s="101">
@@ -3536,7 +3535,7 @@
       <c r="K17" s="77">
         <v>8</v>
       </c>
-      <c r="L17" s="145"/>
+      <c r="L17" s="143"/>
     </row>
     <row r="18" spans="1:20" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B18" s="101">
@@ -3561,16 +3560,16 @@
       <c r="K18" s="77">
         <v>8</v>
       </c>
-      <c r="L18" s="145"/>
-      <c r="N18" s="158" t="s">
+      <c r="L18" s="143"/>
+      <c r="N18" s="146" t="s">
         <v>203</v>
       </c>
-      <c r="O18" s="159"/>
-      <c r="P18" s="159"/>
-      <c r="Q18" s="159"/>
-      <c r="R18" s="159"/>
-      <c r="S18" s="159"/>
-      <c r="T18" s="159"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="147"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="147"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="147"/>
     </row>
     <row r="19" spans="1:20" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B19" s="101">
@@ -3595,14 +3594,14 @@
       <c r="K19" s="77">
         <v>8</v>
       </c>
-      <c r="L19" s="145"/>
-      <c r="N19" s="159"/>
-      <c r="O19" s="159"/>
-      <c r="P19" s="159"/>
-      <c r="Q19" s="159"/>
-      <c r="R19" s="159"/>
-      <c r="S19" s="159"/>
-      <c r="T19" s="159"/>
+      <c r="L19" s="143"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="147"/>
+      <c r="P19" s="147"/>
+      <c r="Q19" s="147"/>
+      <c r="R19" s="147"/>
+      <c r="S19" s="147"/>
+      <c r="T19" s="147"/>
     </row>
     <row r="20" spans="1:20" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B20" s="101">
@@ -3627,14 +3626,14 @@
       <c r="K20" s="77">
         <v>8</v>
       </c>
-      <c r="L20" s="145"/>
-      <c r="N20" s="159"/>
-      <c r="O20" s="159"/>
-      <c r="P20" s="159"/>
-      <c r="Q20" s="159"/>
-      <c r="R20" s="159"/>
-      <c r="S20" s="159"/>
-      <c r="T20" s="159"/>
+      <c r="L20" s="143"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="147"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="147"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="147"/>
     </row>
     <row r="21" spans="1:20" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B21" s="101">
@@ -3659,14 +3658,14 @@
       <c r="K21" s="77">
         <v>8</v>
       </c>
-      <c r="L21" s="145"/>
-      <c r="N21" s="159"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="159"/>
-      <c r="Q21" s="159"/>
-      <c r="R21" s="159"/>
-      <c r="S21" s="159"/>
-      <c r="T21" s="159"/>
+      <c r="L21" s="143"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="147"/>
+      <c r="Q21" s="147"/>
+      <c r="R21" s="147"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="147"/>
     </row>
     <row r="22" spans="1:20" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="A22" s="12"/>
@@ -3692,14 +3691,14 @@
       <c r="K22" s="77">
         <v>8</v>
       </c>
-      <c r="L22" s="145"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="159"/>
-      <c r="P22" s="159"/>
-      <c r="Q22" s="159"/>
-      <c r="R22" s="159"/>
-      <c r="S22" s="159"/>
-      <c r="T22" s="159"/>
+      <c r="L22" s="143"/>
+      <c r="N22" s="147"/>
+      <c r="O22" s="147"/>
+      <c r="P22" s="147"/>
+      <c r="Q22" s="147"/>
+      <c r="R22" s="147"/>
+      <c r="S22" s="147"/>
+      <c r="T22" s="147"/>
     </row>
     <row r="23" spans="1:20" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="A23" s="12"/>
@@ -3725,14 +3724,14 @@
       <c r="K23" s="77">
         <v>8</v>
       </c>
-      <c r="L23" s="146"/>
-      <c r="N23" s="159"/>
-      <c r="O23" s="159"/>
-      <c r="P23" s="159"/>
-      <c r="Q23" s="159"/>
-      <c r="R23" s="159"/>
-      <c r="S23" s="159"/>
-      <c r="T23" s="159"/>
+      <c r="L23" s="145"/>
+      <c r="N23" s="147"/>
+      <c r="O23" s="147"/>
+      <c r="P23" s="147"/>
+      <c r="Q23" s="147"/>
+      <c r="R23" s="147"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="147"/>
     </row>
     <row r="24" spans="1:20" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="A24" s="12"/>
@@ -3758,7 +3757,7 @@
       <c r="K24" s="78">
         <v>8</v>
       </c>
-      <c r="L24" s="153">
+      <c r="L24" s="148">
         <f>SUM(K24:K26)</f>
         <v>24</v>
       </c>
@@ -3786,7 +3785,7 @@
       <c r="K25" s="78">
         <v>8</v>
       </c>
-      <c r="L25" s="154"/>
+      <c r="L25" s="149"/>
     </row>
     <row r="26" spans="1:20" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B26" s="101">
@@ -3811,7 +3810,7 @@
       <c r="K26" s="78">
         <v>8</v>
       </c>
-      <c r="L26" s="155"/>
+      <c r="L26" s="150"/>
     </row>
     <row r="27" spans="1:20" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B27" s="101">
@@ -3836,7 +3835,7 @@
       <c r="K27" s="77">
         <v>8</v>
       </c>
-      <c r="L27" s="144">
+      <c r="L27" s="142">
         <f>SUM(K27:K38)</f>
         <v>96</v>
       </c>
@@ -3864,7 +3863,7 @@
       <c r="K28" s="77">
         <v>8</v>
       </c>
-      <c r="L28" s="145"/>
+      <c r="L28" s="143"/>
     </row>
     <row r="29" spans="1:20" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B29" s="101">
@@ -3889,7 +3888,7 @@
       <c r="K29" s="77">
         <v>8</v>
       </c>
-      <c r="L29" s="145"/>
+      <c r="L29" s="143"/>
     </row>
     <row r="30" spans="1:20" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B30" s="101">
@@ -3914,7 +3913,7 @@
       <c r="K30" s="77">
         <v>8</v>
       </c>
-      <c r="L30" s="145"/>
+      <c r="L30" s="143"/>
     </row>
     <row r="31" spans="1:20" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B31" s="101">
@@ -3939,7 +3938,7 @@
       <c r="K31" s="77">
         <v>8</v>
       </c>
-      <c r="L31" s="145"/>
+      <c r="L31" s="143"/>
     </row>
     <row r="32" spans="1:20" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B32" s="101">
@@ -3964,7 +3963,7 @@
       <c r="K32" s="77">
         <v>8</v>
       </c>
-      <c r="L32" s="145"/>
+      <c r="L32" s="143"/>
     </row>
     <row r="33" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B33" s="101">
@@ -3989,7 +3988,7 @@
       <c r="K33" s="77">
         <v>8</v>
       </c>
-      <c r="L33" s="145"/>
+      <c r="L33" s="143"/>
     </row>
     <row r="34" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B34" s="101">
@@ -4014,7 +4013,7 @@
       <c r="K34" s="77">
         <v>8</v>
       </c>
-      <c r="L34" s="145"/>
+      <c r="L34" s="143"/>
     </row>
     <row r="35" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B35" s="101">
@@ -4039,7 +4038,7 @@
       <c r="K35" s="77">
         <v>8</v>
       </c>
-      <c r="L35" s="145"/>
+      <c r="L35" s="143"/>
     </row>
     <row r="36" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B36" s="101">
@@ -4064,7 +4063,7 @@
       <c r="K36" s="77">
         <v>8</v>
       </c>
-      <c r="L36" s="145"/>
+      <c r="L36" s="143"/>
     </row>
     <row r="37" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B37" s="101">
@@ -4089,7 +4088,7 @@
       <c r="K37" s="77">
         <v>8</v>
       </c>
-      <c r="L37" s="145"/>
+      <c r="L37" s="143"/>
     </row>
     <row r="38" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B38" s="101">
@@ -4114,7 +4113,7 @@
       <c r="K38" s="77">
         <v>8</v>
       </c>
-      <c r="L38" s="145"/>
+      <c r="L38" s="143"/>
     </row>
     <row r="39" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B39" s="99">
@@ -4165,7 +4164,7 @@
       <c r="K40" s="77">
         <v>8</v>
       </c>
-      <c r="L40" s="145">
+      <c r="L40" s="143">
         <f>SUM(K40:K46)</f>
         <v>56</v>
       </c>
@@ -4193,7 +4192,7 @@
       <c r="K41" s="77">
         <v>8</v>
       </c>
-      <c r="L41" s="145"/>
+      <c r="L41" s="143"/>
     </row>
     <row r="42" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B42" s="101">
@@ -4218,7 +4217,7 @@
       <c r="K42" s="77">
         <v>8</v>
       </c>
-      <c r="L42" s="145"/>
+      <c r="L42" s="143"/>
     </row>
     <row r="43" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B43" s="101">
@@ -4243,7 +4242,7 @@
       <c r="K43" s="77">
         <v>8</v>
       </c>
-      <c r="L43" s="145"/>
+      <c r="L43" s="143"/>
     </row>
     <row r="44" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B44" s="101">
@@ -4268,7 +4267,7 @@
       <c r="K44" s="77">
         <v>8</v>
       </c>
-      <c r="L44" s="145"/>
+      <c r="L44" s="143"/>
     </row>
     <row r="45" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B45" s="101">
@@ -4293,7 +4292,7 @@
       <c r="K45" s="77">
         <v>8</v>
       </c>
-      <c r="L45" s="145"/>
+      <c r="L45" s="143"/>
     </row>
     <row r="46" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B46" s="101">
@@ -4318,7 +4317,7 @@
       <c r="K46" s="77">
         <v>8</v>
       </c>
-      <c r="L46" s="146"/>
+      <c r="L46" s="145"/>
     </row>
     <row r="47" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B47" s="101">
@@ -4421,7 +4420,7 @@
       <c r="K50" s="80">
         <v>8</v>
       </c>
-      <c r="L50" s="147">
+      <c r="L50" s="151">
         <f>SUM(K50:K60)</f>
         <v>88</v>
       </c>
@@ -4449,7 +4448,7 @@
       <c r="K51" s="80">
         <v>8</v>
       </c>
-      <c r="L51" s="147"/>
+      <c r="L51" s="151"/>
     </row>
     <row r="52" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B52" s="101">
@@ -4474,7 +4473,7 @@
       <c r="K52" s="80">
         <v>8</v>
       </c>
-      <c r="L52" s="147"/>
+      <c r="L52" s="151"/>
     </row>
     <row r="53" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B53" s="101">
@@ -4499,7 +4498,7 @@
       <c r="K53" s="80">
         <v>8</v>
       </c>
-      <c r="L53" s="147"/>
+      <c r="L53" s="151"/>
     </row>
     <row r="54" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B54" s="101">
@@ -4524,7 +4523,7 @@
       <c r="K54" s="80">
         <v>8</v>
       </c>
-      <c r="L54" s="147"/>
+      <c r="L54" s="151"/>
     </row>
     <row r="55" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B55" s="101">
@@ -4549,7 +4548,7 @@
       <c r="K55" s="80">
         <v>8</v>
       </c>
-      <c r="L55" s="147"/>
+      <c r="L55" s="151"/>
     </row>
     <row r="56" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B56" s="101">
@@ -4574,7 +4573,7 @@
       <c r="K56" s="80">
         <v>8</v>
       </c>
-      <c r="L56" s="147"/>
+      <c r="L56" s="151"/>
     </row>
     <row r="57" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B57" s="101">
@@ -4599,7 +4598,7 @@
       <c r="K57" s="80">
         <v>8</v>
       </c>
-      <c r="L57" s="147"/>
+      <c r="L57" s="151"/>
     </row>
     <row r="58" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B58" s="101">
@@ -4624,7 +4623,7 @@
       <c r="K58" s="80">
         <v>8</v>
       </c>
-      <c r="L58" s="147"/>
+      <c r="L58" s="151"/>
     </row>
     <row r="59" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B59" s="101">
@@ -4649,7 +4648,7 @@
       <c r="K59" s="135">
         <v>8</v>
       </c>
-      <c r="L59" s="147"/>
+      <c r="L59" s="151"/>
     </row>
     <row r="60" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B60" s="101">
@@ -4674,7 +4673,7 @@
       <c r="K60" s="80">
         <v>8</v>
       </c>
-      <c r="L60" s="147"/>
+      <c r="L60" s="151"/>
     </row>
     <row r="61" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B61" s="101">
@@ -4699,7 +4698,7 @@
       <c r="K61" s="79">
         <v>8</v>
       </c>
-      <c r="L61" s="153">
+      <c r="L61" s="148">
         <f>SUM(K61:K64)</f>
         <v>24</v>
       </c>
@@ -4727,7 +4726,7 @@
       <c r="K62" s="79">
         <v>8</v>
       </c>
-      <c r="L62" s="154"/>
+      <c r="L62" s="149"/>
     </row>
     <row r="63" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B63" s="101">
@@ -4752,7 +4751,7 @@
       <c r="K63" s="79">
         <v>8</v>
       </c>
-      <c r="L63" s="155"/>
+      <c r="L63" s="150"/>
     </row>
     <row r="64" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B64" s="101">
@@ -4764,7 +4763,7 @@
       <c r="D64" s="21"/>
       <c r="E64" s="56"/>
       <c r="F64" s="128" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G64" s="101"/>
       <c r="H64" s="101"/>
@@ -4824,7 +4823,7 @@
       <c r="K66" s="80">
         <v>8</v>
       </c>
-      <c r="L66" s="147">
+      <c r="L66" s="151">
         <f>SUM(K66:K69)</f>
         <v>32</v>
       </c>
@@ -4852,7 +4851,7 @@
       <c r="K67" s="80">
         <v>8</v>
       </c>
-      <c r="L67" s="147"/>
+      <c r="L67" s="151"/>
     </row>
     <row r="68" spans="2:25" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B68" s="101">
@@ -4877,7 +4876,7 @@
       <c r="K68" s="80">
         <v>8</v>
       </c>
-      <c r="L68" s="147"/>
+      <c r="L68" s="151"/>
     </row>
     <row r="69" spans="2:25" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B69" s="101">
@@ -4902,7 +4901,7 @@
       <c r="K69" s="80">
         <v>8</v>
       </c>
-      <c r="L69" s="147"/>
+      <c r="L69" s="151"/>
     </row>
     <row r="70" spans="2:25" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B70" s="101">
@@ -4942,7 +4941,7 @@
       <c r="D71" s="21"/>
       <c r="E71" s="102"/>
       <c r="F71" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G71" s="101" t="s">
         <v>78</v>
@@ -4955,7 +4954,7 @@
       <c r="K71" s="80">
         <v>8</v>
       </c>
-      <c r="L71" s="147">
+      <c r="L71" s="151">
         <f>SUM(K71:K73)</f>
         <v>24</v>
       </c>
@@ -4983,7 +4982,7 @@
       <c r="D72" s="21"/>
       <c r="E72" s="102"/>
       <c r="F72" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G72" s="101" t="s">
         <v>78</v>
@@ -4996,7 +4995,7 @@
       <c r="K72" s="80">
         <v>8</v>
       </c>
-      <c r="L72" s="147"/>
+      <c r="L72" s="151"/>
     </row>
     <row r="73" spans="2:25" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B73" s="101">
@@ -5008,7 +5007,7 @@
       <c r="D73" s="21"/>
       <c r="E73" s="102"/>
       <c r="F73" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G73" s="101" t="s">
         <v>78</v>
@@ -5021,7 +5020,7 @@
       <c r="K73" s="80">
         <v>8</v>
       </c>
-      <c r="L73" s="147"/>
+      <c r="L73" s="151"/>
     </row>
     <row r="74" spans="2:25" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B74" s="99">
@@ -5130,7 +5129,7 @@
       <c r="D79" s="15"/>
       <c r="E79" s="14"/>
       <c r="F79" s="140" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G79" s="101" t="s">
         <v>78</v>
@@ -5143,7 +5142,7 @@
       <c r="K79" s="80">
         <v>8</v>
       </c>
-      <c r="L79" s="141">
+      <c r="L79" s="153">
         <f>SUM(K79:K82)</f>
         <v>24</v>
       </c>
@@ -5158,7 +5157,7 @@
       <c r="D80" s="15"/>
       <c r="E80" s="14"/>
       <c r="F80" s="140" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G80" s="101" t="s">
         <v>78</v>
@@ -5171,7 +5170,7 @@
       <c r="K80" s="80">
         <v>8</v>
       </c>
-      <c r="L80" s="142"/>
+      <c r="L80" s="154"/>
     </row>
     <row r="81" spans="1:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B81" s="101">
@@ -5183,7 +5182,7 @@
       <c r="D81" s="15"/>
       <c r="E81" s="14"/>
       <c r="F81" s="140" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G81" s="101" t="s">
         <v>78</v>
@@ -5196,7 +5195,7 @@
       <c r="K81" s="80">
         <v>8</v>
       </c>
-      <c r="L81" s="142"/>
+      <c r="L81" s="154"/>
     </row>
     <row r="82" spans="1:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="A82" s="25"/>
@@ -5216,7 +5215,7 @@
       <c r="I82" s="101"/>
       <c r="J82" s="101"/>
       <c r="K82" s="80"/>
-      <c r="L82" s="143"/>
+      <c r="L82" s="155"/>
     </row>
     <row r="83" spans="1:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="A83" s="25"/>
@@ -5271,7 +5270,7 @@
       <c r="K84" s="80">
         <v>8</v>
       </c>
-      <c r="L84" s="147">
+      <c r="L84" s="151">
         <f>SUM(K84:K87)</f>
         <v>32</v>
       </c>
@@ -5300,7 +5299,7 @@
       <c r="K85" s="80">
         <v>8</v>
       </c>
-      <c r="L85" s="147"/>
+      <c r="L85" s="151"/>
     </row>
     <row r="86" spans="1:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="A86" s="25"/>
@@ -5326,7 +5325,7 @@
       <c r="K86" s="77">
         <v>8</v>
       </c>
-      <c r="L86" s="147"/>
+      <c r="L86" s="151"/>
     </row>
     <row r="87" spans="1:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="A87" s="25"/>
@@ -5352,7 +5351,7 @@
       <c r="K87" s="77">
         <v>8</v>
       </c>
-      <c r="L87" s="147"/>
+      <c r="L87" s="151"/>
     </row>
     <row r="88" spans="1:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="A88" s="25"/>
@@ -5407,7 +5406,7 @@
       <c r="K89" s="77">
         <v>8</v>
       </c>
-      <c r="L89" s="147">
+      <c r="L89" s="151">
         <f>SUM(K89:K92)</f>
         <v>32</v>
       </c>
@@ -5436,7 +5435,7 @@
       <c r="K90" s="77">
         <v>8</v>
       </c>
-      <c r="L90" s="147"/>
+      <c r="L90" s="151"/>
     </row>
     <row r="91" spans="1:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="A91" s="25"/>
@@ -5462,7 +5461,7 @@
       <c r="K91" s="77">
         <v>8</v>
       </c>
-      <c r="L91" s="147"/>
+      <c r="L91" s="151"/>
     </row>
     <row r="92" spans="1:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="A92" s="25"/>
@@ -5488,7 +5487,7 @@
       <c r="K92" s="83">
         <v>8</v>
       </c>
-      <c r="L92" s="147"/>
+      <c r="L92" s="151"/>
     </row>
     <row r="93" spans="1:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="A93" s="25"/>
@@ -5543,7 +5542,7 @@
       <c r="K94" s="83">
         <v>8</v>
       </c>
-      <c r="L94" s="147">
+      <c r="L94" s="151">
         <f>SUM(K94:K97)</f>
         <v>32</v>
       </c>
@@ -5572,7 +5571,7 @@
       <c r="K95" s="83">
         <v>8</v>
       </c>
-      <c r="L95" s="147"/>
+      <c r="L95" s="151"/>
     </row>
     <row r="96" spans="1:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="A96" s="66"/>
@@ -5598,7 +5597,7 @@
       <c r="K96" s="83">
         <v>8</v>
       </c>
-      <c r="L96" s="147"/>
+      <c r="L96" s="151"/>
     </row>
     <row r="97" spans="1:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="A97" s="66"/>
@@ -5624,7 +5623,7 @@
       <c r="K97" s="77">
         <v>8</v>
       </c>
-      <c r="L97" s="147"/>
+      <c r="L97" s="151"/>
     </row>
     <row r="98" spans="1:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B98" s="101">
@@ -5808,7 +5807,7 @@
       <c r="K104" s="77">
         <v>8</v>
       </c>
-      <c r="L104" s="147">
+      <c r="L104" s="151">
         <f>SUM(K104:K107)</f>
         <v>32</v>
       </c>
@@ -5836,7 +5835,7 @@
       <c r="K105" s="77">
         <v>8</v>
       </c>
-      <c r="L105" s="147"/>
+      <c r="L105" s="151"/>
     </row>
     <row r="106" spans="1:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B106" s="101">
@@ -5861,7 +5860,7 @@
       <c r="K106" s="77">
         <v>8</v>
       </c>
-      <c r="L106" s="147"/>
+      <c r="L106" s="151"/>
     </row>
     <row r="107" spans="1:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B107" s="101">
@@ -5886,7 +5885,7 @@
       <c r="K107" s="77">
         <v>8</v>
       </c>
-      <c r="L107" s="147"/>
+      <c r="L107" s="151"/>
     </row>
     <row r="108" spans="1:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B108" s="101">
@@ -5895,26 +5894,15 @@
       <c r="C108" s="86">
         <v>44457</v>
       </c>
-      <c r="D108" s="62"/>
-      <c r="E108" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="F108" s="64" t="s">
-        <v>245</v>
-      </c>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
-      <c r="K108" s="81">
-        <v>8</v>
-      </c>
-      <c r="L108" s="58">
-        <f>K108</f>
-        <v>8</v>
-      </c>
+      <c r="D108" s="61"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="61"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="61"/>
+      <c r="J108" s="61"/>
+      <c r="K108" s="82"/>
+      <c r="L108" s="141"/>
     </row>
     <row r="109" spans="1:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B109" s="101">
@@ -6035,7 +6023,7 @@
       <c r="K114" s="77">
         <v>8</v>
       </c>
-      <c r="L114" s="141">
+      <c r="L114" s="153">
         <f>SUM(K114:K117)</f>
         <v>32</v>
       </c>
@@ -6063,7 +6051,7 @@
       <c r="K115" s="77">
         <v>8</v>
       </c>
-      <c r="L115" s="142"/>
+      <c r="L115" s="154"/>
     </row>
     <row r="116" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B116" s="101">
@@ -6088,7 +6076,7 @@
       <c r="K116" s="77">
         <v>8</v>
       </c>
-      <c r="L116" s="142"/>
+      <c r="L116" s="154"/>
     </row>
     <row r="117" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B117" s="101">
@@ -6113,7 +6101,7 @@
       <c r="K117" s="77">
         <v>8</v>
       </c>
-      <c r="L117" s="143"/>
+      <c r="L117" s="155"/>
     </row>
     <row r="118" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B118" s="101">
@@ -6166,7 +6154,7 @@
       <c r="K119" s="77">
         <v>8</v>
       </c>
-      <c r="L119" s="144">
+      <c r="L119" s="142">
         <f>SUM(K119:K121)</f>
         <v>24</v>
       </c>
@@ -6194,7 +6182,7 @@
       <c r="K120" s="77">
         <v>8</v>
       </c>
-      <c r="L120" s="145"/>
+      <c r="L120" s="143"/>
     </row>
     <row r="121" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B121" s="101">
@@ -6219,7 +6207,7 @@
       <c r="K121" s="77">
         <v>8</v>
       </c>
-      <c r="L121" s="146"/>
+      <c r="L121" s="145"/>
     </row>
     <row r="122" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B122" s="99">
@@ -6298,7 +6286,7 @@
       <c r="K124" s="77">
         <v>8</v>
       </c>
-      <c r="L124" s="147">
+      <c r="L124" s="151">
         <f>SUM(K124:K127)</f>
         <v>32</v>
       </c>
@@ -6326,7 +6314,7 @@
       <c r="K125" s="77">
         <v>8</v>
       </c>
-      <c r="L125" s="147"/>
+      <c r="L125" s="151"/>
     </row>
     <row r="126" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B126" s="101">
@@ -6351,7 +6339,7 @@
       <c r="K126" s="77">
         <v>8</v>
       </c>
-      <c r="L126" s="147"/>
+      <c r="L126" s="151"/>
     </row>
     <row r="127" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B127" s="101">
@@ -6376,7 +6364,7 @@
       <c r="K127" s="85">
         <v>8</v>
       </c>
-      <c r="L127" s="147"/>
+      <c r="L127" s="151"/>
     </row>
     <row r="128" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="B128" s="101">
@@ -6429,7 +6417,7 @@
       <c r="K129" s="77">
         <v>8</v>
       </c>
-      <c r="L129" s="148">
+      <c r="L129" s="157">
         <f>SUM(K129:K132)</f>
         <v>32</v>
       </c>
@@ -6457,7 +6445,7 @@
       <c r="K130" s="77">
         <v>8</v>
       </c>
-      <c r="L130" s="149"/>
+      <c r="L130" s="158"/>
     </row>
     <row r="131" spans="2:12" ht="28.5" customHeight="1">
       <c r="B131" s="101">
@@ -6482,7 +6470,7 @@
       <c r="K131" s="77">
         <v>8</v>
       </c>
-      <c r="L131" s="149"/>
+      <c r="L131" s="158"/>
     </row>
     <row r="132" spans="2:12" ht="28.5" customHeight="1">
       <c r="B132" s="99">
@@ -6507,7 +6495,7 @@
       <c r="K132" s="77">
         <v>8</v>
       </c>
-      <c r="L132" s="150"/>
+      <c r="L132" s="159"/>
     </row>
     <row r="133" spans="2:12" ht="28.5" customHeight="1">
       <c r="B133" s="101">
@@ -6516,17 +6504,17 @@
       <c r="C133" s="86">
         <v>44492</v>
       </c>
-      <c r="D133" s="151" t="s">
+      <c r="D133" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="E133" s="151"/>
-      <c r="F133" s="151"/>
-      <c r="G133" s="151"/>
-      <c r="H133" s="151"/>
-      <c r="I133" s="151"/>
-      <c r="J133" s="151"/>
-      <c r="K133" s="151"/>
-      <c r="L133" s="151"/>
+      <c r="E133" s="160"/>
+      <c r="F133" s="160"/>
+      <c r="G133" s="160"/>
+      <c r="H133" s="160"/>
+      <c r="I133" s="160"/>
+      <c r="J133" s="160"/>
+      <c r="K133" s="160"/>
+      <c r="L133" s="160"/>
     </row>
     <row r="134" spans="2:12" ht="28.5" customHeight="1">
       <c r="B134" s="101">
@@ -6559,17 +6547,16 @@
       <c r="C135" s="86"/>
       <c r="K135" s="1">
         <f>SUM(K134:K134,K5:K132)</f>
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="L27:L38"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="L6:L11"/>
-    <mergeCell ref="L12:L23"/>
-    <mergeCell ref="N18:T23"/>
-    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L114:L117"/>
+    <mergeCell ref="L119:L121"/>
+    <mergeCell ref="L124:L127"/>
+    <mergeCell ref="L129:L132"/>
+    <mergeCell ref="D133:L133"/>
     <mergeCell ref="L104:L107"/>
     <mergeCell ref="L40:L46"/>
     <mergeCell ref="L47:L49"/>
@@ -6582,11 +6569,12 @@
     <mergeCell ref="L89:L92"/>
     <mergeCell ref="L94:L97"/>
     <mergeCell ref="L99:L102"/>
-    <mergeCell ref="L114:L117"/>
-    <mergeCell ref="L119:L121"/>
-    <mergeCell ref="L124:L127"/>
-    <mergeCell ref="L129:L132"/>
-    <mergeCell ref="D133:L133"/>
+    <mergeCell ref="L27:L38"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="L6:L11"/>
+    <mergeCell ref="L12:L23"/>
+    <mergeCell ref="N18:T23"/>
+    <mergeCell ref="L24:L26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6608,10 +6596,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="55"/>
-    <col min="2" max="2" width="25.4140625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="44.4140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="55" customWidth="1"/>
+    <col min="3" max="3" width="44.375" style="55" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="55" customWidth="1"/>
-    <col min="5" max="5" width="15.08203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="55" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="113" customWidth="1"/>
     <col min="7" max="16384" width="9" style="55"/>
   </cols>
@@ -6893,41 +6881,41 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.08203125" style="55" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="6.08203125" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="55" customWidth="1"/>
+    <col min="1" max="1" width="2.125" style="55" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="55" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="55" customWidth="1"/>
-    <col min="6" max="6" width="66.1640625" style="55" customWidth="1"/>
-    <col min="7" max="7" width="14.58203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.125" style="55" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.625" style="55" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="55"/>
     <col min="14" max="15" width="9" style="55" customWidth="1"/>
-    <col min="16" max="17" width="13.1640625" style="55" customWidth="1"/>
-    <col min="18" max="18" width="10.58203125" style="55" customWidth="1"/>
+    <col min="16" max="17" width="13.125" style="55" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="55" customWidth="1"/>
     <col min="19" max="20" width="9" style="55" customWidth="1"/>
     <col min="21" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="30">
-      <c r="B1" s="157" t="s">
+    <row r="1" spans="2:18" ht="31.5">
+      <c r="B1" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
@@ -7070,7 +7058,7 @@
       <c r="K5" s="77">
         <v>8</v>
       </c>
-      <c r="L5" s="173">
+      <c r="L5" s="164">
         <f>SUM(K5:K12)</f>
         <v>64</v>
       </c>
@@ -7107,7 +7095,7 @@
       <c r="K6" s="77">
         <v>8</v>
       </c>
-      <c r="L6" s="173"/>
+      <c r="L6" s="164"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="6" t="s">
@@ -7145,7 +7133,7 @@
       <c r="K7" s="77">
         <v>8</v>
       </c>
-      <c r="L7" s="173"/>
+      <c r="L7" s="164"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="6">
@@ -7185,7 +7173,7 @@
       <c r="K8" s="77">
         <v>8</v>
       </c>
-      <c r="L8" s="173"/>
+      <c r="L8" s="164"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -7219,7 +7207,7 @@
       <c r="K9" s="77">
         <v>8</v>
       </c>
-      <c r="L9" s="173"/>
+      <c r="L9" s="164"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -7253,7 +7241,7 @@
       <c r="K10" s="77">
         <v>8</v>
       </c>
-      <c r="L10" s="173"/>
+      <c r="L10" s="164"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="6" t="s">
@@ -7289,7 +7277,7 @@
       <c r="K11" s="77">
         <v>8</v>
       </c>
-      <c r="L11" s="173"/>
+      <c r="L11" s="164"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="30">
@@ -7326,7 +7314,7 @@
       <c r="K12" s="77">
         <v>8</v>
       </c>
-      <c r="L12" s="174"/>
+      <c r="L12" s="165"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -7359,7 +7347,7 @@
       <c r="K13" s="78">
         <v>8</v>
       </c>
-      <c r="L13" s="169">
+      <c r="L13" s="166">
         <f>SUM(K13:K15)</f>
         <v>24</v>
       </c>
@@ -7399,7 +7387,7 @@
       <c r="K14" s="78">
         <v>8</v>
       </c>
-      <c r="L14" s="175"/>
+      <c r="L14" s="167"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -7432,7 +7420,7 @@
       <c r="K15" s="78">
         <v>8</v>
       </c>
-      <c r="L15" s="170"/>
+      <c r="L15" s="168"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -7465,7 +7453,7 @@
       <c r="K16" s="77">
         <v>8</v>
       </c>
-      <c r="L16" s="172">
+      <c r="L16" s="169">
         <f>SUM(K16:K25)</f>
         <v>80</v>
       </c>
@@ -7501,7 +7489,7 @@
       <c r="K17" s="77">
         <v>8</v>
       </c>
-      <c r="L17" s="173"/>
+      <c r="L17" s="164"/>
       <c r="M17" s="4"/>
       <c r="N17" s="122"/>
       <c r="O17" s="122"/>
@@ -7538,7 +7526,7 @@
       <c r="K18" s="77">
         <v>8</v>
       </c>
-      <c r="L18" s="173"/>
+      <c r="L18" s="164"/>
       <c r="M18" s="4"/>
       <c r="N18" s="122"/>
       <c r="O18" s="122"/>
@@ -7575,7 +7563,7 @@
       <c r="K19" s="77">
         <v>8</v>
       </c>
-      <c r="L19" s="173"/>
+      <c r="L19" s="164"/>
       <c r="N19" s="122"/>
       <c r="O19" s="122"/>
       <c r="P19" s="122"/>
@@ -7611,7 +7599,7 @@
       <c r="K20" s="77">
         <v>8</v>
       </c>
-      <c r="L20" s="173"/>
+      <c r="L20" s="164"/>
       <c r="N20" s="122"/>
       <c r="O20" s="122"/>
       <c r="P20" s="122"/>
@@ -7647,7 +7635,7 @@
       <c r="K21" s="77">
         <v>8</v>
       </c>
-      <c r="L21" s="173"/>
+      <c r="L21" s="164"/>
       <c r="N21" s="122"/>
       <c r="O21" s="122"/>
       <c r="P21" s="122"/>
@@ -7683,7 +7671,7 @@
       <c r="K22" s="77">
         <v>8</v>
       </c>
-      <c r="L22" s="173"/>
+      <c r="L22" s="164"/>
     </row>
     <row r="23" spans="2:20" ht="28.5" customHeight="1">
       <c r="B23" s="101">
@@ -7712,7 +7700,7 @@
       <c r="K23" s="77">
         <v>8</v>
       </c>
-      <c r="L23" s="173"/>
+      <c r="L23" s="164"/>
     </row>
     <row r="24" spans="2:20" ht="28.5" customHeight="1">
       <c r="B24" s="101">
@@ -7741,7 +7729,7 @@
       <c r="K24" s="77">
         <v>8</v>
       </c>
-      <c r="L24" s="173"/>
+      <c r="L24" s="164"/>
     </row>
     <row r="25" spans="2:20" ht="28.5" customHeight="1">
       <c r="B25" s="101">
@@ -7770,7 +7758,7 @@
       <c r="K25" s="77">
         <v>8</v>
       </c>
-      <c r="L25" s="174"/>
+      <c r="L25" s="165"/>
     </row>
     <row r="26" spans="2:20" ht="28.5" customHeight="1">
       <c r="B26" s="101">
@@ -7799,7 +7787,7 @@
       <c r="K26" s="78">
         <v>8</v>
       </c>
-      <c r="L26" s="169">
+      <c r="L26" s="166">
         <f>SUM(K26:K29)</f>
         <v>32</v>
       </c>
@@ -7831,7 +7819,7 @@
       <c r="K27" s="78">
         <v>8</v>
       </c>
-      <c r="L27" s="175"/>
+      <c r="L27" s="167"/>
     </row>
     <row r="28" spans="2:20" ht="28.5" customHeight="1">
       <c r="B28" s="101">
@@ -7860,7 +7848,7 @@
       <c r="K28" s="78">
         <v>8</v>
       </c>
-      <c r="L28" s="175"/>
+      <c r="L28" s="167"/>
     </row>
     <row r="29" spans="2:20" ht="28.5" customHeight="1">
       <c r="B29" s="101">
@@ -7889,7 +7877,7 @@
       <c r="K29" s="78">
         <v>8</v>
       </c>
-      <c r="L29" s="170"/>
+      <c r="L29" s="168"/>
     </row>
     <row r="30" spans="2:20" ht="28.5" customHeight="1">
       <c r="B30" s="101">
@@ -7918,7 +7906,7 @@
       <c r="K30" s="94">
         <v>8</v>
       </c>
-      <c r="L30" s="165">
+      <c r="L30" s="161">
         <f>SUM(K30:K37)</f>
         <v>64</v>
       </c>
@@ -7950,7 +7938,7 @@
       <c r="K31" s="94">
         <v>8</v>
       </c>
-      <c r="L31" s="166"/>
+      <c r="L31" s="162"/>
     </row>
     <row r="32" spans="2:20" ht="28.5" customHeight="1">
       <c r="B32" s="101">
@@ -7979,7 +7967,7 @@
       <c r="K32" s="94">
         <v>8</v>
       </c>
-      <c r="L32" s="166"/>
+      <c r="L32" s="162"/>
     </row>
     <row r="33" spans="2:14" ht="28.5" customHeight="1">
       <c r="B33" s="101">
@@ -8008,7 +7996,7 @@
       <c r="K33" s="94">
         <v>8</v>
       </c>
-      <c r="L33" s="166"/>
+      <c r="L33" s="162"/>
     </row>
     <row r="34" spans="2:14" ht="28.5" customHeight="1">
       <c r="B34" s="101">
@@ -8037,7 +8025,7 @@
       <c r="K34" s="94">
         <v>8</v>
       </c>
-      <c r="L34" s="166"/>
+      <c r="L34" s="162"/>
     </row>
     <row r="35" spans="2:14" ht="28.5" customHeight="1">
       <c r="B35" s="101">
@@ -8066,7 +8054,7 @@
       <c r="K35" s="94">
         <v>8</v>
       </c>
-      <c r="L35" s="166"/>
+      <c r="L35" s="162"/>
     </row>
     <row r="36" spans="2:14" ht="28.5" customHeight="1">
       <c r="B36" s="101">
@@ -8095,7 +8083,7 @@
       <c r="K36" s="94">
         <v>8</v>
       </c>
-      <c r="L36" s="166"/>
+      <c r="L36" s="162"/>
     </row>
     <row r="37" spans="2:14" ht="28.5" customHeight="1">
       <c r="B37" s="101">
@@ -8124,7 +8112,7 @@
       <c r="K37" s="94">
         <v>8</v>
       </c>
-      <c r="L37" s="167"/>
+      <c r="L37" s="163"/>
     </row>
     <row r="38" spans="2:14" ht="28.5" customHeight="1">
       <c r="B38" s="101">
@@ -8179,7 +8167,7 @@
       <c r="K39" s="95">
         <v>8</v>
       </c>
-      <c r="L39" s="169">
+      <c r="L39" s="166">
         <f>SUM(K39:K40)</f>
         <v>16</v>
       </c>
@@ -8211,7 +8199,7 @@
       <c r="K40" s="95">
         <v>8</v>
       </c>
-      <c r="L40" s="170"/>
+      <c r="L40" s="168"/>
     </row>
     <row r="41" spans="2:14" ht="28.5" customHeight="1">
       <c r="B41" s="101">
@@ -8240,7 +8228,7 @@
       <c r="K41" s="77">
         <v>8</v>
       </c>
-      <c r="L41" s="168">
+      <c r="L41" s="170">
         <f>SUM(K41:K50)</f>
         <v>80</v>
       </c>
@@ -8272,7 +8260,7 @@
       <c r="K42" s="77">
         <v>8</v>
       </c>
-      <c r="L42" s="168"/>
+      <c r="L42" s="170"/>
     </row>
     <row r="43" spans="2:14" ht="28.5" customHeight="1">
       <c r="B43" s="101">
@@ -8301,7 +8289,7 @@
       <c r="K43" s="77">
         <v>8</v>
       </c>
-      <c r="L43" s="168"/>
+      <c r="L43" s="170"/>
     </row>
     <row r="44" spans="2:14" ht="28.5" customHeight="1">
       <c r="B44" s="101">
@@ -8330,7 +8318,7 @@
       <c r="K44" s="77">
         <v>8</v>
       </c>
-      <c r="L44" s="168"/>
+      <c r="L44" s="170"/>
     </row>
     <row r="45" spans="2:14" ht="28.5" customHeight="1">
       <c r="B45" s="101">
@@ -8359,7 +8347,7 @@
       <c r="K45" s="77">
         <v>8</v>
       </c>
-      <c r="L45" s="168"/>
+      <c r="L45" s="170"/>
     </row>
     <row r="46" spans="2:14" ht="28.5" customHeight="1">
       <c r="B46" s="101">
@@ -8388,7 +8376,7 @@
       <c r="K46" s="77">
         <v>8</v>
       </c>
-      <c r="L46" s="168"/>
+      <c r="L46" s="170"/>
     </row>
     <row r="47" spans="2:14" ht="28.5" customHeight="1">
       <c r="B47" s="101">
@@ -8417,7 +8405,7 @@
       <c r="K47" s="77">
         <v>8</v>
       </c>
-      <c r="L47" s="168"/>
+      <c r="L47" s="170"/>
       <c r="N47" s="29"/>
     </row>
     <row r="48" spans="2:14" ht="28.5" customHeight="1">
@@ -8445,7 +8433,7 @@
       <c r="K48" s="77">
         <v>8</v>
       </c>
-      <c r="L48" s="168"/>
+      <c r="L48" s="170"/>
     </row>
     <row r="49" spans="2:12" ht="28.5" customHeight="1">
       <c r="B49" s="101">
@@ -8474,7 +8462,7 @@
       <c r="K49" s="77">
         <v>8</v>
       </c>
-      <c r="L49" s="168"/>
+      <c r="L49" s="170"/>
     </row>
     <row r="50" spans="2:12" ht="28.5" customHeight="1">
       <c r="B50" s="101">
@@ -8503,7 +8491,7 @@
       <c r="K50" s="77">
         <v>8</v>
       </c>
-      <c r="L50" s="168"/>
+      <c r="L50" s="170"/>
     </row>
     <row r="51" spans="2:12" ht="28.5" customHeight="1">
       <c r="B51" s="101">
@@ -8532,7 +8520,7 @@
       <c r="K51" s="95">
         <v>8</v>
       </c>
-      <c r="L51" s="151">
+      <c r="L51" s="160">
         <f>SUM(K51:K53)</f>
         <v>24</v>
       </c>
@@ -8564,7 +8552,7 @@
       <c r="K52" s="95">
         <v>8</v>
       </c>
-      <c r="L52" s="151"/>
+      <c r="L52" s="160"/>
     </row>
     <row r="53" spans="2:12" ht="28.5" customHeight="1">
       <c r="B53" s="101">
@@ -8591,7 +8579,7 @@
       <c r="K53" s="95">
         <v>8</v>
       </c>
-      <c r="L53" s="151"/>
+      <c r="L53" s="160"/>
     </row>
     <row r="54" spans="2:12" ht="28.5" customHeight="1">
       <c r="B54" s="101">
@@ -8622,7 +8610,7 @@
       <c r="K54" s="77">
         <v>8</v>
       </c>
-      <c r="L54" s="168">
+      <c r="L54" s="170">
         <f>SUM(K54:K62)</f>
         <v>72</v>
       </c>
@@ -8656,7 +8644,7 @@
       <c r="K55" s="77">
         <v>8</v>
       </c>
-      <c r="L55" s="168"/>
+      <c r="L55" s="170"/>
     </row>
     <row r="56" spans="2:12" ht="28.5" customHeight="1">
       <c r="B56" s="101">
@@ -8687,7 +8675,7 @@
       <c r="K56" s="77">
         <v>8</v>
       </c>
-      <c r="L56" s="168"/>
+      <c r="L56" s="170"/>
     </row>
     <row r="57" spans="2:12" ht="28.5" customHeight="1">
       <c r="B57" s="101">
@@ -8718,7 +8706,7 @@
       <c r="K57" s="77">
         <v>8</v>
       </c>
-      <c r="L57" s="168"/>
+      <c r="L57" s="170"/>
     </row>
     <row r="58" spans="2:12" ht="28.5" customHeight="1">
       <c r="B58" s="101">
@@ -8749,7 +8737,7 @@
       <c r="K58" s="77">
         <v>8</v>
       </c>
-      <c r="L58" s="168"/>
+      <c r="L58" s="170"/>
     </row>
     <row r="59" spans="2:12" ht="28.5" customHeight="1">
       <c r="B59" s="101">
@@ -8780,7 +8768,7 @@
       <c r="K59" s="77">
         <v>8</v>
       </c>
-      <c r="L59" s="168"/>
+      <c r="L59" s="170"/>
     </row>
     <row r="60" spans="2:12" ht="28.5" customHeight="1">
       <c r="B60" s="101">
@@ -8811,7 +8799,7 @@
       <c r="K60" s="77">
         <v>8</v>
       </c>
-      <c r="L60" s="168"/>
+      <c r="L60" s="170"/>
     </row>
     <row r="61" spans="2:12" ht="28.5" customHeight="1">
       <c r="B61" s="101">
@@ -8842,7 +8830,7 @@
       <c r="K61" s="77">
         <v>8</v>
       </c>
-      <c r="L61" s="168"/>
+      <c r="L61" s="170"/>
     </row>
     <row r="62" spans="2:12" ht="28.5" customHeight="1">
       <c r="B62" s="101">
@@ -8873,7 +8861,7 @@
       <c r="K62" s="77">
         <v>8</v>
       </c>
-      <c r="L62" s="168"/>
+      <c r="L62" s="170"/>
     </row>
     <row r="63" spans="2:12" ht="28.5" customHeight="1">
       <c r="B63" s="101">
@@ -8885,7 +8873,7 @@
       <c r="F63" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="L63" s="168"/>
+      <c r="L63" s="170"/>
     </row>
     <row r="64" spans="2:12" ht="28.5" customHeight="1">
       <c r="B64" s="101">
@@ -8944,7 +8932,7 @@
       <c r="K65" s="77">
         <v>8</v>
       </c>
-      <c r="L65" s="165">
+      <c r="L65" s="161">
         <f>SUM(K65:K66)</f>
         <v>16</v>
       </c>
@@ -8978,7 +8966,7 @@
       <c r="K66" s="77">
         <v>8</v>
       </c>
-      <c r="L66" s="167"/>
+      <c r="L66" s="163"/>
     </row>
     <row r="67" spans="2:12" ht="28.5" customHeight="1">
       <c r="B67" s="101">
@@ -9102,7 +9090,7 @@
       <c r="K70" s="94">
         <v>8</v>
       </c>
-      <c r="L70" s="172">
+      <c r="L70" s="169">
         <f>SUM(K70:K72)</f>
         <v>24</v>
       </c>
@@ -9136,7 +9124,7 @@
       <c r="K71" s="94">
         <v>8</v>
       </c>
-      <c r="L71" s="173"/>
+      <c r="L71" s="164"/>
     </row>
     <row r="72" spans="2:12" ht="28.5" customHeight="1">
       <c r="B72" s="101">
@@ -9167,7 +9155,7 @@
       <c r="K72" s="94">
         <v>8</v>
       </c>
-      <c r="L72" s="174"/>
+      <c r="L72" s="165"/>
     </row>
     <row r="73" spans="2:12" ht="28.5" customHeight="1">
       <c r="B73" s="101">
@@ -9300,7 +9288,7 @@
       <c r="K78" s="94">
         <v>8</v>
       </c>
-      <c r="L78" s="165">
+      <c r="L78" s="161">
         <f>SUM(K78:K80)</f>
         <v>24</v>
       </c>
@@ -9334,7 +9322,7 @@
       <c r="K79" s="94">
         <v>8</v>
       </c>
-      <c r="L79" s="166"/>
+      <c r="L79" s="162"/>
     </row>
     <row r="80" spans="2:12" ht="28.5" customHeight="1">
       <c r="B80" s="101">
@@ -9365,7 +9353,7 @@
       <c r="K80" s="94">
         <v>8</v>
       </c>
-      <c r="L80" s="167"/>
+      <c r="L80" s="163"/>
     </row>
     <row r="81" spans="2:12" ht="28.5" customHeight="1">
       <c r="B81" s="101">
@@ -9508,7 +9496,7 @@
       <c r="K85" s="77">
         <v>8</v>
       </c>
-      <c r="L85" s="168">
+      <c r="L85" s="170">
         <f>SUM(K85:K86)</f>
         <v>16</v>
       </c>
@@ -9542,7 +9530,7 @@
       <c r="K86" s="77">
         <v>8</v>
       </c>
-      <c r="L86" s="168"/>
+      <c r="L86" s="170"/>
     </row>
     <row r="87" spans="2:12" ht="28.5" customHeight="1">
       <c r="B87" s="101">
@@ -9603,7 +9591,7 @@
       <c r="K88" s="77">
         <v>8</v>
       </c>
-      <c r="L88" s="147">
+      <c r="L88" s="151">
         <f>SUM(K88:K91)</f>
         <v>32</v>
       </c>
@@ -9637,7 +9625,7 @@
       <c r="K89" s="77">
         <v>8</v>
       </c>
-      <c r="L89" s="147"/>
+      <c r="L89" s="151"/>
     </row>
     <row r="90" spans="2:12" ht="28.5" customHeight="1">
       <c r="B90" s="101">
@@ -9668,7 +9656,7 @@
       <c r="K90" s="77">
         <v>8</v>
       </c>
-      <c r="L90" s="147"/>
+      <c r="L90" s="151"/>
     </row>
     <row r="91" spans="2:12" ht="28.5" customHeight="1">
       <c r="B91" s="101">
@@ -9699,7 +9687,7 @@
       <c r="K91" s="77">
         <v>8</v>
       </c>
-      <c r="L91" s="147"/>
+      <c r="L91" s="151"/>
     </row>
     <row r="92" spans="2:12" ht="28.5" customHeight="1">
       <c r="B92" s="101">
@@ -9760,7 +9748,7 @@
       <c r="K93" s="77">
         <v>8</v>
       </c>
-      <c r="L93" s="168">
+      <c r="L93" s="170">
         <f>SUM(K93:K96)</f>
         <v>32</v>
       </c>
@@ -9794,7 +9782,7 @@
       <c r="K94" s="77">
         <v>8</v>
       </c>
-      <c r="L94" s="168"/>
+      <c r="L94" s="170"/>
     </row>
     <row r="95" spans="2:12" ht="28.5" customHeight="1">
       <c r="B95" s="101">
@@ -9825,7 +9813,7 @@
       <c r="K95" s="77">
         <v>8</v>
       </c>
-      <c r="L95" s="168"/>
+      <c r="L95" s="170"/>
     </row>
     <row r="96" spans="2:12" ht="28.5" customHeight="1">
       <c r="B96" s="101">
@@ -9856,7 +9844,7 @@
       <c r="K96" s="77">
         <v>8</v>
       </c>
-      <c r="L96" s="168"/>
+      <c r="L96" s="170"/>
     </row>
     <row r="97" spans="2:12" ht="28.5" customHeight="1">
       <c r="B97" s="101">
@@ -9917,7 +9905,7 @@
       <c r="K98" s="77">
         <v>8</v>
       </c>
-      <c r="L98" s="165">
+      <c r="L98" s="161">
         <f>SUM(K98:K101)</f>
         <v>32</v>
       </c>
@@ -9951,7 +9939,7 @@
       <c r="K99" s="77">
         <v>8</v>
       </c>
-      <c r="L99" s="166"/>
+      <c r="L99" s="162"/>
     </row>
     <row r="100" spans="2:12" ht="28.5" customHeight="1">
       <c r="B100" s="101">
@@ -9982,7 +9970,7 @@
       <c r="K100" s="77">
         <v>8</v>
       </c>
-      <c r="L100" s="166"/>
+      <c r="L100" s="162"/>
     </row>
     <row r="101" spans="2:12" ht="28.5" customHeight="1">
       <c r="B101" s="101">
@@ -10013,7 +10001,7 @@
       <c r="K101" s="77">
         <v>8</v>
       </c>
-      <c r="L101" s="167"/>
+      <c r="L101" s="163"/>
     </row>
     <row r="102" spans="2:12" ht="28.5" customHeight="1">
       <c r="B102" s="101">
@@ -10074,7 +10062,7 @@
       <c r="K103" s="77">
         <v>8</v>
       </c>
-      <c r="L103" s="165">
+      <c r="L103" s="161">
         <f>SUM(K103:K105)</f>
         <v>24</v>
       </c>
@@ -10108,7 +10096,7 @@
       <c r="K104" s="77">
         <v>8</v>
       </c>
-      <c r="L104" s="166"/>
+      <c r="L104" s="162"/>
     </row>
     <row r="105" spans="2:12" ht="28.5" customHeight="1">
       <c r="B105" s="101">
@@ -10139,7 +10127,7 @@
       <c r="K105" s="77">
         <v>8</v>
       </c>
-      <c r="L105" s="167"/>
+      <c r="L105" s="163"/>
     </row>
     <row r="106" spans="2:12" ht="28.5" customHeight="1">
       <c r="B106" s="101">
@@ -10296,7 +10284,7 @@
       <c r="K112" s="77">
         <v>8</v>
       </c>
-      <c r="L112" s="165">
+      <c r="L112" s="161">
         <f>SUM(K112:K115)</f>
         <v>32</v>
       </c>
@@ -10327,7 +10315,7 @@
       <c r="K113" s="77">
         <v>8</v>
       </c>
-      <c r="L113" s="166"/>
+      <c r="L113" s="162"/>
     </row>
     <row r="114" spans="2:12" ht="28.5" customHeight="1">
       <c r="B114" s="101">
@@ -10355,7 +10343,7 @@
       <c r="K114" s="77">
         <v>8</v>
       </c>
-      <c r="L114" s="166"/>
+      <c r="L114" s="162"/>
     </row>
     <row r="115" spans="2:12" ht="28.5" customHeight="1">
       <c r="B115" s="101">
@@ -10383,7 +10371,7 @@
       <c r="K115" s="77">
         <v>8</v>
       </c>
-      <c r="L115" s="167"/>
+      <c r="L115" s="163"/>
     </row>
     <row r="116" spans="2:12" ht="28.5" customHeight="1">
       <c r="B116" s="101">
@@ -10439,7 +10427,7 @@
       <c r="K117" s="77">
         <v>8</v>
       </c>
-      <c r="L117" s="165">
+      <c r="L117" s="161">
         <f>SUM(K117:K120)</f>
         <v>32</v>
       </c>
@@ -10470,7 +10458,7 @@
       <c r="K118" s="77">
         <v>8</v>
       </c>
-      <c r="L118" s="166"/>
+      <c r="L118" s="162"/>
     </row>
     <row r="119" spans="2:12" ht="28.5" customHeight="1">
       <c r="B119" s="101">
@@ -10498,7 +10486,7 @@
       <c r="K119" s="77">
         <v>8</v>
       </c>
-      <c r="L119" s="166"/>
+      <c r="L119" s="162"/>
     </row>
     <row r="120" spans="2:12" ht="28.5" customHeight="1">
       <c r="B120" s="101">
@@ -10526,7 +10514,7 @@
       <c r="K120" s="77">
         <v>8</v>
       </c>
-      <c r="L120" s="167"/>
+      <c r="L120" s="163"/>
     </row>
     <row r="121" spans="2:12" ht="28.5" customHeight="1">
       <c r="B121" s="101">
@@ -10582,7 +10570,7 @@
       <c r="K122" s="77">
         <v>8</v>
       </c>
-      <c r="L122" s="165">
+      <c r="L122" s="161">
         <f>SUM(K122:K125)</f>
         <v>32</v>
       </c>
@@ -10614,7 +10602,7 @@
       <c r="K123" s="77">
         <v>8</v>
       </c>
-      <c r="L123" s="166"/>
+      <c r="L123" s="162"/>
     </row>
     <row r="124" spans="2:12" ht="28.5" customHeight="1">
       <c r="B124" s="101">
@@ -10643,7 +10631,7 @@
       <c r="K124" s="77">
         <v>8</v>
       </c>
-      <c r="L124" s="166"/>
+      <c r="L124" s="162"/>
     </row>
     <row r="125" spans="2:12" ht="28.5" customHeight="1">
       <c r="B125" s="101">
@@ -10672,7 +10660,7 @@
       <c r="K125" s="77">
         <v>8</v>
       </c>
-      <c r="L125" s="167"/>
+      <c r="L125" s="163"/>
     </row>
     <row r="126" spans="2:12" ht="28.5" customHeight="1">
       <c r="B126" s="101">
@@ -10827,17 +10815,17 @@
       <c r="C131" s="86">
         <v>44492</v>
       </c>
-      <c r="D131" s="160" t="s">
+      <c r="D131" s="172" t="s">
         <v>103</v>
       </c>
-      <c r="E131" s="161"/>
-      <c r="F131" s="161"/>
-      <c r="G131" s="161"/>
-      <c r="H131" s="161"/>
-      <c r="I131" s="161"/>
-      <c r="J131" s="161"/>
-      <c r="K131" s="161"/>
-      <c r="L131" s="162"/>
+      <c r="E131" s="173"/>
+      <c r="F131" s="173"/>
+      <c r="G131" s="173"/>
+      <c r="H131" s="173"/>
+      <c r="I131" s="173"/>
+      <c r="J131" s="173"/>
+      <c r="K131" s="173"/>
+      <c r="L131" s="174"/>
     </row>
     <row r="132" spans="2:12" ht="28.5" customHeight="1">
       <c r="B132" s="101">
@@ -10860,7 +10848,7 @@
       <c r="K132" s="84">
         <v>8</v>
       </c>
-      <c r="L132" s="163">
+      <c r="L132" s="175">
         <f>SUM(K132:K133)</f>
         <v>16</v>
       </c>
@@ -10886,7 +10874,7 @@
       <c r="K133" s="84">
         <v>8</v>
       </c>
-      <c r="L133" s="164"/>
+      <c r="L133" s="176"/>
     </row>
     <row r="134" spans="2:12" ht="28.5" customHeight="1">
       <c r="K134" s="125">
@@ -10896,12 +10884,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="L30:L37"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="L16:L25"/>
-    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="D131:L131"/>
+    <mergeCell ref="L132:L133"/>
+    <mergeCell ref="L98:L101"/>
+    <mergeCell ref="L103:L105"/>
+    <mergeCell ref="L112:L115"/>
+    <mergeCell ref="L117:L120"/>
+    <mergeCell ref="L122:L125"/>
+    <mergeCell ref="L127:L130"/>
     <mergeCell ref="L93:L96"/>
     <mergeCell ref="L39:L40"/>
     <mergeCell ref="L41:L50"/>
@@ -10914,14 +10904,12 @@
     <mergeCell ref="L83:L84"/>
     <mergeCell ref="L85:L86"/>
     <mergeCell ref="L88:L91"/>
-    <mergeCell ref="D131:L131"/>
-    <mergeCell ref="L132:L133"/>
-    <mergeCell ref="L98:L101"/>
-    <mergeCell ref="L103:L105"/>
-    <mergeCell ref="L112:L115"/>
-    <mergeCell ref="L117:L120"/>
-    <mergeCell ref="L122:L125"/>
-    <mergeCell ref="L127:L130"/>
+    <mergeCell ref="L30:L37"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="L16:L25"/>
+    <mergeCell ref="L26:L29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10942,12 +10930,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="55" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="55" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="55" customWidth="1"/>
     <col min="3" max="3" width="41" style="55" customWidth="1"/>
     <col min="4" max="4" width="15" style="55" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="55" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="113" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="55" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="113" customWidth="1"/>
     <col min="7" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
